--- a/data/target_unseen_fraud.xlsx
+++ b/data/target_unseen_fraud.xlsx
@@ -425,17 +425,17 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -465,7 +465,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -490,7 +490,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -505,7 +505,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -575,7 +575,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -595,7 +595,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -615,12 +615,12 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -635,7 +635,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -675,7 +675,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -695,7 +695,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -715,7 +715,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
